--- a/Manufacturing.xlsx
+++ b/Manufacturing.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Solymi\Documents\Github\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CreativeLabY\Documents\GitHub\OBD_IONRF_ESP32\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C236D38-AD77-48B4-BC04-9F82305EFF2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="13170"/>
   </bookViews>
   <sheets>
     <sheet name="ESP32-OBD" sheetId="1" r:id="rId1"/>
-    <sheet name="IO-NRF" sheetId="2" r:id="rId2"/>
+    <sheet name="ESP32-OBD with IO-NRF" sheetId="3" r:id="rId2"/>
+    <sheet name="IO-NRF_minimal (6 db)" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="50">
   <si>
     <t>Tétel neve</t>
   </si>
@@ -66,9 +66,6 @@
     <t>ESP32-WROOM Modul</t>
   </si>
   <si>
-    <t>NRF24L01-SMD</t>
-  </si>
-  <si>
     <t>Alapalkatrészek</t>
   </si>
   <si>
@@ -93,9 +90,6 @@
     <t>Aisler.net</t>
   </si>
   <si>
-    <t>https://www.ebay.com/itm/401246785935?hash=item5d6c2c118f:g:JtoAAOSwJ7RYWhNv&amp;amdata=enc%3AAQAHAAAAoABqIaC1qu6Ur3qZ%2FvWoAblFV%2BTt0WuR9VKTJhjacQVZagZ4aBfUQcSIJnZ38ft96ZSEH0D0pFJYyDGeOwUAbf6tFGK3jSeeyDG3g9NizLBLtCH6QgJde4BdE3jVFDFBUgANzNrlYc3BERfbfRg7%2B1qxYlqH7V3Iw%2FqFbITMABg2hmKyWId7E4I7LnRfzBUxK9sLstPQtdx3cYkc6ilirvo%3D%7Ctkp%3ABk9SR6DD85GxYQ</t>
-  </si>
-  <si>
     <t>https://hu.mouser.com/ProductDetail/Espressif-Systems/ESP32-WROOM-32E-H4?qs=Li%252BoUPsLEnuUxeqGSCz%252BcA%3D%3D</t>
   </si>
   <si>
@@ -105,9 +99,6 @@
     <t>Aqua.hu</t>
   </si>
   <si>
-    <t>https://www.hestore.hu/prod_10041600.html</t>
-  </si>
-  <si>
     <t>Mouser</t>
   </si>
   <si>
@@ -120,32 +111,95 @@
     <t>https://hu.mouser.com/ProductDetail/Hammond-Manufacturing/1551USB3CLR?qs=UqPySVGgRwHUcGN5q%252B3ujQ%3D%3D</t>
   </si>
   <si>
-    <t>HEStore.hu</t>
-  </si>
-  <si>
-    <t>XKC-Y25-NPN</t>
-  </si>
-  <si>
-    <t>Attiny84</t>
-  </si>
-  <si>
-    <t>https://hu.mouser.com/ProductDetail/Microchip-Technology-Atmel/ATTINY84-20SSUR?qs=6Dg1WZIWLC4gLjo7N%2FHxcA%3D%3D</t>
-  </si>
-  <si>
-    <t>Doboz</t>
-  </si>
-  <si>
-    <t>Inline Splice Fuse + biztosíték</t>
-  </si>
-  <si>
-    <t>Bullet crimp terminal + ring terminal</t>
+    <t>Mindenből 5 helyett 6 db a tartalék miatt.</t>
+  </si>
+  <si>
+    <t>Mouser.com</t>
+  </si>
+  <si>
+    <t>AP7370-33W-7, 556-ATTINY84-20SSUR</t>
+  </si>
+  <si>
+    <t>Inline Blade Fuse Holder</t>
+  </si>
+  <si>
+    <t>FDH</t>
+  </si>
+  <si>
+    <t>Multicomp MP001005 + TLP291</t>
+  </si>
+  <si>
+    <t>NRF24L01 + XKC-Y25-NPN</t>
+  </si>
+  <si>
+    <t>techfun.sk</t>
+  </si>
+  <si>
+    <t>NRF24L01 + XKC-Y25-L01</t>
+  </si>
+  <si>
+    <t>1x6</t>
+  </si>
+  <si>
+    <t>ár/db</t>
+  </si>
+  <si>
+    <t>TechFun.sk, HEStore</t>
+  </si>
+  <si>
+    <t>1 x 6PCs</t>
+  </si>
+  <si>
+    <t>NRF24L01 (4767 Ft) + XKC-Y25-NPN (21600 Ft)</t>
+  </si>
+  <si>
+    <t>NRF24L01 (4540 Ft) + XKC-Y25-NPN (24000 Ft)</t>
+  </si>
+  <si>
+    <t>Aisler (Budget)</t>
+  </si>
+  <si>
+    <t>Aisler (Blitz)</t>
+  </si>
+  <si>
+    <t>2-hét alatt (Aisler Blitz)</t>
+  </si>
+  <si>
+    <t>4-hét alatt (Aisler Budget)</t>
+  </si>
+  <si>
+    <t>Aisler.net - Blitz, UPS standard</t>
+  </si>
+  <si>
+    <t>ár/db (6 db-ra vetítve)</t>
+  </si>
+  <si>
+    <t>6 db teljes ára</t>
+  </si>
+  <si>
+    <t>Munkadíj</t>
+  </si>
+  <si>
+    <t>NRF24L01</t>
+  </si>
+  <si>
+    <t>NRF24L01 (6 db)</t>
+  </si>
+  <si>
+    <t>ár/db (1 db-ra vetítve)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="4">
+    <numFmt numFmtId="6" formatCode="#,##0\ &quot;Ft&quot;;[Red]\-#,##0\ &quot;Ft&quot;"/>
+    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;Ft&quot;_-;\-* #,##0.00\ &quot;Ft&quot;_-;_-* &quot;-&quot;??\ &quot;Ft&quot;_-;_-@_-"/>
+    <numFmt numFmtId="171" formatCode="_-* #,##0.0\ &quot;Ft&quot;_-;\-* #,##0.0\ &quot;Ft&quot;_-;_-* &quot;-&quot;??\ &quot;Ft&quot;_-;_-@_-"/>
+    <numFmt numFmtId="172" formatCode="_-* #,##0\ &quot;Ft&quot;_-;\-* #,##0\ &quot;Ft&quot;_-;_-* &quot;-&quot;??\ &quot;Ft&quot;_-;_-@_-"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -161,13 +215,51 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -179,10 +271,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -230,9 +324,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="171" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2"/>
+    <xf numFmtId="44" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="172" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Jó" xfId="2" builtinId="26"/>
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
+    <cellStyle name="Pénznem" xfId="1" builtinId="4"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -509,25 +616,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="A6:G6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="48.5546875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -538,7 +647,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
@@ -550,25 +659,25 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="3">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D2" s="4"/>
       <c r="F2" s="3">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="G2" s="3">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="3" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="3" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -576,10 +685,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F3" s="3">
         <v>3400</v>
@@ -588,7 +697,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
@@ -596,10 +705,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F4" s="3">
         <v>1220</v>
@@ -608,7 +717,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -616,10 +725,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F5" s="3">
         <v>1340</v>
@@ -628,61 +737,85 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1700</v>
+      </c>
+      <c r="G6" s="3">
+        <v>5600</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B7" s="3">
         <v>1</v>
       </c>
+      <c r="C7" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="D7" s="4" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F7" s="3">
-        <v>1300</v>
+        <v>1250</v>
       </c>
       <c r="G7" s="3">
-        <v>5600</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="3">
-        <v>1</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" s="3">
-        <v>1250</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D9" s="4"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F11">
-        <f>6*SUM(F2:F8)</f>
-        <v>63060</v>
-      </c>
-      <c r="G11">
-        <f>SUM(G2:G8)</f>
-        <v>13100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F13">
-        <f>SUM(F11+G11)/6</f>
-        <v>12693.333333333334</v>
+      <c r="F9">
+        <f>6*SUM(F2:F7)</f>
+        <v>68460</v>
+      </c>
+      <c r="G9">
+        <f>SUM(G2:G7)</f>
+        <v>14800</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" s="20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F12">
+        <f>F9+G9</f>
+        <v>83260</v>
+      </c>
+      <c r="G12" s="22">
+        <f>SUM(F9+G9)/6</f>
+        <v>13876.666666666666</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E13" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" s="19">
+        <v>10000</v>
+      </c>
+      <c r="G13" s="19">
+        <v>10000</v>
       </c>
     </row>
   </sheetData>
@@ -692,187 +825,510 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAC64D55-2BC9-4D80-82C7-6381A66FAD26}">
-  <dimension ref="A1:G9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.44140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.21875" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.77734375" style="10" customWidth="1"/>
-    <col min="4" max="4" width="47.6640625" style="10" customWidth="1"/>
-    <col min="5" max="5" width="9.21875" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.42578125" customWidth="1"/>
+    <col min="5" max="5" width="11" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="8">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3">
+        <v>2500</v>
+      </c>
+      <c r="G2" s="3">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="8">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+      <c r="E3" s="3"/>
+      <c r="F3" s="3">
+        <v>3400</v>
+      </c>
+      <c r="G3" s="3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="8">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3">
+        <v>1220</v>
+      </c>
+      <c r="G4" s="3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="8">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3">
+        <v>1340</v>
+      </c>
+      <c r="G5" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3">
+        <v>1700</v>
+      </c>
+      <c r="G6" s="3">
+        <v>5600</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="8">
-        <v>1</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8">
-        <v>1000</v>
-      </c>
-      <c r="G2" s="8">
-        <v>2200</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="8">
-        <v>1</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="8">
-        <v>3421</v>
-      </c>
-      <c r="F3" s="8">
-        <f>E3*1.27</f>
-        <v>4344.67</v>
-      </c>
-      <c r="G3" s="8">
+      <c r="B7" s="8">
+        <v>1</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3">
+        <v>1250</v>
+      </c>
+      <c r="G7" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="8">
-        <v>1</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8">
-        <v>1300</v>
-      </c>
-      <c r="G4" s="8">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="15">
-        <v>2</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15">
-        <v>2000</v>
-      </c>
-      <c r="G5" s="15">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="8">
-        <v>1</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8">
-        <v>2500</v>
-      </c>
-      <c r="G6" s="8">
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="13" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="15">
+        <v>1</v>
+      </c>
+      <c r="C8" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" s="8">
-        <v>1</v>
-      </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" s="8">
-        <v>1</v>
-      </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
+      <c r="D8" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15">
+        <v>757</v>
+      </c>
+      <c r="G8" s="15">
+        <v>1915</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="3"/>
+      <c r="F9">
+        <f>6*SUM(F2:F8)</f>
+        <v>73002</v>
+      </c>
+      <c r="G9">
+        <f>SUM(G2:G8)</f>
+        <v>16715</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D11" s="2"/>
+      <c r="F11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" s="23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D12" s="2"/>
+      <c r="F12">
+        <f>F9+G9</f>
+        <v>89717</v>
+      </c>
+      <c r="G12" s="21">
+        <f>SUM(F9+G9)/6</f>
+        <v>14952.833333333334</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E13" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" s="19">
+        <v>10000</v>
+      </c>
+      <c r="G13" s="19">
+        <v>10000</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="39.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="47.7109375" style="10" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.5703125" customWidth="1"/>
+    <col min="10" max="10" width="25.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="6"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="8">
+        <v>1</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="8">
+        <v>6936</v>
+      </c>
+      <c r="F2" s="8">
+        <f>E2*1.27</f>
+        <v>8808.7199999999993</v>
+      </c>
+      <c r="G2" s="8">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="8">
+        <v>1</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8">
+        <v>6238</v>
+      </c>
+      <c r="G3" s="8">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="15">
+        <v>1</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15">
+        <v>37185</v>
+      </c>
+      <c r="G4" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="15">
+        <v>1</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15">
+        <v>26366</v>
+      </c>
+      <c r="G5" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="8">
+        <v>1</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8">
+        <v>28540</v>
+      </c>
+      <c r="G6" s="8">
+        <v>1915</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8">
+        <v>5127</v>
+      </c>
+      <c r="G7" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8">
+        <v>10254</v>
+      </c>
+      <c r="G8" s="8">
+        <v>5530</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="10">
+        <v>1</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="10">
+        <v>12332</v>
+      </c>
+      <c r="F9" s="10">
+        <f>E9*1.27</f>
+        <v>15661.64</v>
+      </c>
+      <c r="G9" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H11" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" s="18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H12" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H13" s="17">
+        <f>(F2+G2+F3+G3+F6+G6+F8+G8+F9)/6</f>
+        <v>13441.226666666667</v>
+      </c>
+      <c r="I13" s="17">
+        <f>(F2+G2+F3+G3+F6+G6+F7+G7+F9)/6</f>
+        <v>11665.06</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G14" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" s="19">
+        <v>10000</v>
+      </c>
+      <c r="I14" s="19">
+        <v>10000</v>
+      </c>
+      <c r="J14" s="10"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Manufacturing.xlsx
+++ b/Manufacturing.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="13170"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="13170" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="ESP32-OBD" sheetId="1" r:id="rId1"/>
     <sheet name="ESP32-OBD with IO-NRF" sheetId="3" r:id="rId2"/>
     <sheet name="IO-NRF_minimal (6 db)" sheetId="2" r:id="rId3"/>
+    <sheet name="Beültetési árak" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -196,8 +197,8 @@
   <numFmts count="4">
     <numFmt numFmtId="6" formatCode="#,##0\ &quot;Ft&quot;;[Red]\-#,##0\ &quot;Ft&quot;"/>
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;Ft&quot;_-;\-* #,##0.00\ &quot;Ft&quot;_-;_-* &quot;-&quot;??\ &quot;Ft&quot;_-;_-@_-"/>
-    <numFmt numFmtId="171" formatCode="_-* #,##0.0\ &quot;Ft&quot;_-;\-* #,##0.0\ &quot;Ft&quot;_-;_-* &quot;-&quot;??\ &quot;Ft&quot;_-;_-@_-"/>
-    <numFmt numFmtId="172" formatCode="_-* #,##0\ &quot;Ft&quot;_-;\-* #,##0\ &quot;Ft&quot;_-;_-* &quot;-&quot;??\ &quot;Ft&quot;_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.0\ &quot;Ft&quot;_-;\-* #,##0.0\ &quot;Ft&quot;_-;_-* &quot;-&quot;??\ &quot;Ft&quot;_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0\ &quot;Ft&quot;_-;\-* #,##0\ &quot;Ft&quot;_-;_-* &quot;-&quot;??\ &quot;Ft&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -324,7 +325,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="171" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -333,7 +334,7 @@
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2"/>
     <xf numFmtId="44" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="172" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="44" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
@@ -619,7 +620,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -1331,4 +1332,16 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Manufacturing.xlsx
+++ b/Manufacturing.xlsx
@@ -9,13 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="13170" activeTab="3"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="13170" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="ESP32-OBD" sheetId="1" r:id="rId1"/>
     <sheet name="ESP32-OBD with IO-NRF" sheetId="3" r:id="rId2"/>
     <sheet name="IO-NRF_minimal (6 db)" sheetId="2" r:id="rId3"/>
     <sheet name="Beültetési árak" sheetId="4" r:id="rId4"/>
+    <sheet name="Összesítő 30 db" sheetId="5" r:id="rId5"/>
+    <sheet name="Teszt gyártás 6 db" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="81">
   <si>
     <t>Tétel neve</t>
   </si>
@@ -188,24 +190,129 @@
   </si>
   <si>
     <t>ár/db (1 db-ra vetítve)</t>
+  </si>
+  <si>
+    <t>IO-NRF minimal</t>
+  </si>
+  <si>
+    <t>Név</t>
+  </si>
+  <si>
+    <t>darabszám</t>
+  </si>
+  <si>
+    <t>Gyártó</t>
+  </si>
+  <si>
+    <t>Méret</t>
+  </si>
+  <si>
+    <t>52x33</t>
+  </si>
+  <si>
+    <t>Darabszám</t>
+  </si>
+  <si>
+    <t>Ajánlott ár</t>
+  </si>
+  <si>
+    <t>Ajánlott ár/db</t>
+  </si>
+  <si>
+    <t>EUR2HUF</t>
+  </si>
+  <si>
+    <t>Ár/db</t>
+  </si>
+  <si>
+    <t>IO-NRF minimal (NO-THT)</t>
+  </si>
+  <si>
+    <t>57x26</t>
+  </si>
+  <si>
+    <t>OBDESP32 (NOTHT)</t>
+  </si>
+  <si>
+    <t>Végösszeg</t>
+  </si>
+  <si>
+    <t>35 SMT, 21 Unique, Double sided</t>
+  </si>
+  <si>
+    <t>22 SMT, 13 Unique, Single sided</t>
+  </si>
+  <si>
+    <t>IO-NRF minimal (THT)</t>
+  </si>
+  <si>
+    <t>ár/db 30 db-ra</t>
+  </si>
+  <si>
+    <t>Tétel név</t>
+  </si>
+  <si>
+    <t>Beültetés (AISLER, EUR)</t>
+  </si>
+  <si>
+    <t>Beültetés (AISLER, HUF)</t>
+  </si>
+  <si>
+    <t>Végösszeg (beültetéssel)</t>
+  </si>
+  <si>
+    <t>Végösszeg/db (beültetéssel)</t>
+  </si>
+  <si>
+    <t>Végösszeg (beültetés nélkül)</t>
+  </si>
+  <si>
+    <t>Végösszeg/db (beültetés nélkül)</t>
+  </si>
+  <si>
+    <t>OBD-ESP32 only</t>
+  </si>
+  <si>
+    <t>30 db ára</t>
+  </si>
+  <si>
+    <t>Alkatrészek + NYÁKgyártás</t>
+  </si>
+  <si>
+    <t>30 db-ra</t>
+  </si>
+  <si>
+    <t>OBD-ESP32 with IO-NRF</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="4">
+  <numFmts count="8">
     <numFmt numFmtId="6" formatCode="#,##0\ &quot;Ft&quot;;[Red]\-#,##0\ &quot;Ft&quot;"/>
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;Ft&quot;_-;\-* #,##0.00\ &quot;Ft&quot;_-;_-* &quot;-&quot;??\ &quot;Ft&quot;_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0.0\ &quot;Ft&quot;_-;\-* #,##0.0\ &quot;Ft&quot;_-;_-* &quot;-&quot;??\ &quot;Ft&quot;_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0\ &quot;Ft&quot;_-;\-* #,##0\ &quot;Ft&quot;_-;_-* &quot;-&quot;??\ &quot;Ft&quot;_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$€-1]_-;\-* #,##0.00\ [$€-1]_-;_-* &quot;-&quot;??\ [$€-1]_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0.00\ [$Ft-40E]_-;\-* #,##0.00\ [$Ft-40E]_-;_-* &quot;-&quot;??\ [$Ft-40E]_-;_-@_-"/>
+    <numFmt numFmtId="174" formatCode="_-* #,##0.0\ [$Ft-40E]_-;\-* #,##0.0\ [$Ft-40E]_-;_-* &quot;-&quot;??\ [$Ft-40E]_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0.0\ [$Ft-40E]_-;\-* #,##0.0\ [$Ft-40E]_-;_-* &quot;-&quot;?\ [$Ft-40E]_-;_-@_-"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -274,12 +381,12 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -289,53 +396,68 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="2"/>
+    <xf numFmtId="44" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2"/>
-    <xf numFmtId="44" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Jó" xfId="2" builtinId="26"/>
@@ -618,10 +740,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -637,7 +759,7 @@
     <col min="9" max="9" width="20.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -660,7 +782,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
@@ -678,7 +800,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="3" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" s="3" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -698,7 +820,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
@@ -718,7 +840,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -738,7 +860,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
@@ -758,7 +880,7 @@
         <v>5600</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
@@ -778,8 +900,8 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D9" s="4"/>
       <c r="F9">
         <f>6*SUM(F2:F7)</f>
@@ -790,15 +912,18 @@
         <v>14800</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F11" t="s">
         <v>45</v>
       </c>
       <c r="G11" s="20" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F12">
         <f>F9+G9</f>
         <v>83260</v>
@@ -807,8 +932,12 @@
         <f>SUM(F9+G9)/6</f>
         <v>13876.666666666666</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12">
+        <f>F9*5+G9</f>
+        <v>357100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E13" s="18" t="s">
         <v>46</v>
       </c>
@@ -827,10 +956,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -844,7 +973,7 @@
     <col min="7" max="7" width="20.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -867,7 +996,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
@@ -886,7 +1015,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="150" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -907,7 +1036,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
@@ -928,7 +1057,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -949,7 +1078,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
@@ -970,7 +1099,7 @@
         <v>5600</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
@@ -991,7 +1120,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>47</v>
       </c>
@@ -1012,7 +1141,7 @@
         <v>1915</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="8"/>
       <c r="C9" s="3"/>
@@ -1027,10 +1156,10 @@
         <v>16715</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D11" s="2"/>
       <c r="F11" t="s">
         <v>45</v>
@@ -1038,8 +1167,11 @@
       <c r="G11" s="23" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D12" s="2"/>
       <c r="F12">
         <f>F9+G9</f>
@@ -1049,8 +1181,12 @@
         <f>SUM(F9+G9)/6</f>
         <v>14952.833333333334</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12">
+        <f>F9*5+G9</f>
+        <v>381725</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E13" s="18" t="s">
         <v>46</v>
       </c>
@@ -1071,7 +1207,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1293,6 +1429,9 @@
       <c r="I11" s="18" t="s">
         <v>34</v>
       </c>
+      <c r="J11" s="18" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H12" s="10" t="s">
@@ -1300,6 +1439,9 @@
       </c>
       <c r="I12" s="10" t="s">
         <v>42</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -1310,6 +1452,10 @@
       <c r="I13" s="17">
         <f>(F2+G2+F3+G3+F6+G6+F7+G7+F9)/6</f>
         <v>11665.06</v>
+      </c>
+      <c r="J13" s="17">
+        <f>(F2+F3+F6+F8+F9)*5/30+SUM(G2:G9)/30</f>
+        <v>11955.226666666666</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -1335,6 +1481,403 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="10"/>
+    <col min="5" max="5" width="12" style="10" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" style="10" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="30" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" s="10">
+        <v>30</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" s="24">
+        <v>267.55</v>
+      </c>
+      <c r="F4" s="24">
+        <f>E4/B4</f>
+        <v>8.918333333333333</v>
+      </c>
+      <c r="G4" s="26">
+        <v>395</v>
+      </c>
+      <c r="H4" s="26">
+        <f>F4*G4</f>
+        <v>3522.7416666666663</v>
+      </c>
+      <c r="I4" s="27">
+        <f>H4*B4</f>
+        <v>105682.24999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="10">
+        <v>30</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" s="24">
+        <v>161.55000000000001</v>
+      </c>
+      <c r="F5" s="24">
+        <f>E5/B5</f>
+        <v>5.3850000000000007</v>
+      </c>
+      <c r="G5" s="26">
+        <v>395</v>
+      </c>
+      <c r="H5" s="26">
+        <f>F5*G5</f>
+        <v>2127.0750000000003</v>
+      </c>
+      <c r="I5" s="27">
+        <f>H5*B5</f>
+        <v>63812.250000000007</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I6" s="27"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I7" s="27"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="I8" s="27"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="10">
+        <v>30</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" s="24">
+        <v>340.89</v>
+      </c>
+      <c r="F9" s="24">
+        <f>E9/B9</f>
+        <v>11.363</v>
+      </c>
+      <c r="G9" s="26">
+        <v>395</v>
+      </c>
+      <c r="H9" s="26">
+        <f>F9*G9</f>
+        <v>4488.3850000000002</v>
+      </c>
+      <c r="I9" s="27">
+        <f t="shared" ref="I6:I11" si="0">H9*B9</f>
+        <v>134651.55000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" s="10">
+        <v>20</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" s="24">
+        <v>323.93</v>
+      </c>
+      <c r="F10" s="24">
+        <f>E10/B10</f>
+        <v>16.1965</v>
+      </c>
+      <c r="G10" s="26">
+        <v>395</v>
+      </c>
+      <c r="H10" s="26">
+        <f>F10*G10</f>
+        <v>6397.6175000000003</v>
+      </c>
+      <c r="I10" s="27">
+        <f t="shared" si="0"/>
+        <v>127952.35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="10">
+        <v>10</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" s="24">
+        <v>306.95999999999998</v>
+      </c>
+      <c r="F11" s="24">
+        <f>E11/B11</f>
+        <v>30.695999999999998</v>
+      </c>
+      <c r="G11" s="26">
+        <v>395</v>
+      </c>
+      <c r="H11" s="26">
+        <f>F11*G11</f>
+        <v>12124.92</v>
+      </c>
+      <c r="I11" s="27">
+        <f t="shared" si="0"/>
+        <v>121249.2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:XFB18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.42578125" style="10" customWidth="1"/>
+    <col min="5" max="5" width="12" style="10" customWidth="1"/>
+    <col min="6" max="7" width="27" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9 16382:16382" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="XFB1" s="10"/>
+    </row>
+    <row r="3" spans="1:9 16382:16382" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="29">
+        <f>11955.22*30</f>
+        <v>358656.6</v>
+      </c>
+      <c r="C3" s="24">
+        <v>161.55000000000001</v>
+      </c>
+      <c r="D3" s="28">
+        <f>C3*E3</f>
+        <v>63812.250000000007</v>
+      </c>
+      <c r="E3" s="10">
+        <v>395</v>
+      </c>
+      <c r="F3" s="25">
+        <f>B3+D3</f>
+        <v>422468.85</v>
+      </c>
+      <c r="G3" s="25">
+        <f>F3/$B$18</f>
+        <v>14082.295</v>
+      </c>
+      <c r="H3" s="29">
+        <f>11955.22*30</f>
+        <v>358656.6</v>
+      </c>
+      <c r="I3" s="25">
+        <f>H3/$B$18</f>
+        <v>11955.22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9 16382:16382" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" s="29">
+        <v>381725</v>
+      </c>
+      <c r="C4" s="24">
+        <v>340.89</v>
+      </c>
+      <c r="D4" s="28">
+        <f>C4*E4</f>
+        <v>134651.54999999999</v>
+      </c>
+      <c r="E4" s="10">
+        <v>395</v>
+      </c>
+      <c r="F4" s="25">
+        <f t="shared" ref="F4:F5" si="0">B4+D4</f>
+        <v>516376.55</v>
+      </c>
+      <c r="G4" s="25">
+        <f t="shared" ref="G4:G5" si="1">F4/$B$18</f>
+        <v>17212.551666666666</v>
+      </c>
+      <c r="H4" s="29">
+        <v>381725</v>
+      </c>
+      <c r="I4" s="25">
+        <f t="shared" ref="I4:I5" si="2">H4/$B$18</f>
+        <v>12724.166666666666</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9 16382:16382" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" s="26">
+        <v>357100</v>
+      </c>
+      <c r="C5" s="24">
+        <v>340.89</v>
+      </c>
+      <c r="D5" s="28">
+        <f>C5*E5</f>
+        <v>134651.54999999999</v>
+      </c>
+      <c r="E5" s="10">
+        <v>395</v>
+      </c>
+      <c r="F5" s="25">
+        <f t="shared" si="0"/>
+        <v>491751.55</v>
+      </c>
+      <c r="G5" s="25">
+        <f t="shared" si="1"/>
+        <v>16391.718333333334</v>
+      </c>
+      <c r="H5" s="26">
+        <v>357100</v>
+      </c>
+      <c r="I5" s="25">
+        <f t="shared" si="2"/>
+        <v>11903.333333333334</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="10">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
